--- a/passwords.xlsx
+++ b/passwords.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://realmatch-my.sharepoint.com/personal/mtsour_pandologic_com/Documents/My Docs/github/DynamicS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC1048BF41D84B2E5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9A253DD-ABF6-48AF-8BFD-E35946C1E9F3}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_F25DC773A252ABDACC1048BF41D84B2E5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D1D23CC-A998-4C38-BD1E-C01A5EA057C1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$17</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,9 +28,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>s</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+  <si>
+    <t>site_master</t>
+  </si>
+  <si>
+    <t>Matan</t>
+  </si>
+  <si>
+    <t>Tsour</t>
+  </si>
+  <si>
+    <t>matani.ts1@gmail.com</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>Keren</t>
+  </si>
+  <si>
+    <t>Ben Gigi</t>
+  </si>
+  <si>
+    <t>Keren@keren.com</t>
+  </si>
+  <si>
+    <t>OtherKeren</t>
+  </si>
+  <si>
+    <t>Gadot</t>
+  </si>
+  <si>
+    <t>otherkeren@otherkeren.com</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Banim</t>
+  </si>
+  <si>
+    <t>ben@ben.com</t>
+  </si>
+  <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>Tzur</t>
+  </si>
+  <si>
+    <t>sharon@sharon.com</t>
+  </si>
+  <si>
+    <t>Tomer</t>
+  </si>
+  <si>
+    <t>tomer@tomer.com</t>
+  </si>
+  <si>
+    <t>worker</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Pie</t>
+  </si>
+  <si>
+    <t>apple@apple.com</t>
+  </si>
+  <si>
+    <t>Yossi</t>
+  </si>
+  <si>
+    <t>Hasson</t>
+  </si>
+  <si>
+    <t>yossi@yossi.com</t>
+  </si>
+  <si>
+    <t>Menachem</t>
+  </si>
+  <si>
+    <t>Begin</t>
+  </si>
+  <si>
+    <t>menachem@menachem.com</t>
+  </si>
+  <si>
+    <t>Golda</t>
+  </si>
+  <si>
+    <t>Meir</t>
+  </si>
+  <si>
+    <t>golda@golda.com</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>Bibi</t>
+  </si>
+  <si>
+    <t>Nethanjayu</t>
+  </si>
+  <si>
+    <t>bibi@bibi.com</t>
+  </si>
+  <si>
+    <t>Princess</t>
+  </si>
+  <si>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>princess@princess.com</t>
+  </si>
+  <si>
+    <t>Bojack</t>
+  </si>
+  <si>
+    <t>Horseman</t>
+  </si>
+  <si>
+    <t>bojack@bojack.com</t>
+  </si>
+  <si>
+    <t>Mister</t>
+  </si>
+  <si>
+    <t>PenautButter</t>
+  </si>
+  <si>
+    <t>mister@mister.com</t>
+  </si>
+  <si>
+    <t>Gurion</t>
+  </si>
+  <si>
+    <t>bengurion@bengurion.com</t>
+  </si>
+  <si>
+    <t>Yizhak</t>
+  </si>
+  <si>
+    <t>Shamir</t>
+  </si>
+  <si>
+    <t>yizhak@yizhak.com</t>
+  </si>
+  <si>
+    <t>passcode</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -345,20 +510,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>0</v>
       </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E17" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
+      <sortCondition ref="A1:A17"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/passwords.xlsx
+++ b/passwords.xlsx
@@ -513,7 +513,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
